--- a/tests/test-files/test_wrangling/input/t_test_input.xlsx
+++ b/tests/test-files/test_wrangling/input/t_test_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdaf2c4ef198b934/Documents/GitHub/disco-data-processing/tests/test-files/test_wrangling/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4EEDD129864A382EEB75ECF65B5DCE3A8746BBCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEE12BEC-2DA0-4FEC-9E7A-B5EB2B8777C2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4EEDD129864A382EEB75ECF65B5DCE3A8746BBCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54E65B17-9BCB-44AF-B888-C5E221ABF35B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="735" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,13 +414,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="L247" sqref="L247"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -437,7 +437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -454,7 +454,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -465,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6.9</v>
       </c>
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -519,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -544,7 +544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -619,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2">
         <v>0.5</v>
@@ -671,7 +671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1">
@@ -696,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
@@ -721,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1">
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1">
@@ -771,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1">
@@ -796,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1">
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2">
         <v>0.75</v>
@@ -848,7 +848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1">
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1">
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="1">
@@ -948,7 +948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1">
@@ -973,7 +973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1">
@@ -998,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2">
         <v>1</v>
@@ -1025,7 +1025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1">
@@ -1050,7 +1050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1">
@@ -1075,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1">
@@ -1100,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1">
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1">
@@ -1150,7 +1150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2">
         <v>1.25</v>
@@ -1202,7 +1202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1">
@@ -1227,7 +1227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1">
@@ -1252,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="1">
@@ -1277,7 +1277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1">
@@ -1302,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1">
@@ -1327,7 +1327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1">
@@ -1352,7 +1352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2">
         <v>1.5</v>
@@ -1379,7 +1379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1">
@@ -1404,7 +1404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1">
@@ -1429,7 +1429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1">
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1">
@@ -1479,7 +1479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="1">
@@ -1504,7 +1504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1">
@@ -1529,7 +1529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>1.75</v>
@@ -1556,7 +1556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1">
@@ -1581,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1">
@@ -1606,7 +1606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="1">
@@ -1631,7 +1631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="1">
@@ -1656,7 +1656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="1">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1">
@@ -1706,7 +1706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>8.1280000000000001</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="1">
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1">
@@ -1785,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1">
@@ -1810,7 +1810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="1">
@@ -1835,7 +1835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="1">
@@ -1860,7 +1860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="1">
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2">
         <v>0.5</v>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1">
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1">
@@ -1962,7 +1962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="1">
@@ -1987,7 +1987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1">
@@ -2012,7 +2012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="1">
@@ -2037,7 +2037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="1">
@@ -2062,7 +2062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2">
         <v>0.75</v>
@@ -2089,7 +2089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="1">
@@ -2114,7 +2114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="1">
@@ -2139,7 +2139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="1">
@@ -2164,7 +2164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="1">
@@ -2189,7 +2189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="1">
@@ -2214,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="1">
@@ -2239,7 +2239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2">
         <v>1</v>
@@ -2266,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="1">
@@ -2291,7 +2291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="1">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="1">
@@ -2341,7 +2341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="1">
@@ -2366,7 +2366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="1">
@@ -2391,7 +2391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="1">
@@ -2416,7 +2416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2">
         <v>1.25</v>
@@ -2443,7 +2443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="1">
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="1">
@@ -2493,7 +2493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="1">
@@ -2518,7 +2518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="1">
@@ -2543,7 +2543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1">
@@ -2568,7 +2568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="1">
@@ -2593,7 +2593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2">
         <v>1.5</v>
@@ -2620,7 +2620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="1">
@@ -2645,7 +2645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="1">
@@ -2670,7 +2670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="1">
@@ -2695,7 +2695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="1">
@@ -2720,7 +2720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="1">
@@ -2745,7 +2745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="1">
@@ -2770,7 +2770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2">
         <v>1.75</v>
@@ -2797,7 +2797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="1">
@@ -2822,7 +2822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="1">
@@ -2847,7 +2847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="1">
@@ -2872,7 +2872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="1">
@@ -2897,7 +2897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="1">
@@ -2922,7 +2922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="1">
@@ -2947,7 +2947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>9.5625</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="1">
@@ -3001,7 +3001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="1">
@@ -3026,7 +3026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="1">
@@ -3051,7 +3051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="1">
@@ -3076,7 +3076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="1">
@@ -3101,7 +3101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="1">
@@ -3126,7 +3126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2">
         <v>0.5</v>
@@ -3153,7 +3153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="1">
@@ -3178,7 +3178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="1">
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="1">
@@ -3228,7 +3228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="1">
@@ -3253,7 +3253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="1">
@@ -3278,7 +3278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="1">
@@ -3303,7 +3303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2">
         <v>0.75</v>
@@ -3330,7 +3330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="1">
@@ -3355,7 +3355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="1">
@@ -3380,7 +3380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="1">
@@ -3405,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="1">
@@ -3430,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="1">
@@ -3455,7 +3455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="1">
@@ -3480,7 +3480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2">
         <v>1</v>
@@ -3507,7 +3507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="1">
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="1">
@@ -3557,7 +3557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="1">
@@ -3582,7 +3582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="1">
@@ -3607,7 +3607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="1">
@@ -3632,7 +3632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="1">
@@ -3657,7 +3657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2">
         <v>1.25</v>
@@ -3684,7 +3684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="1">
@@ -3709,7 +3709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1">
@@ -3734,7 +3734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="1">
@@ -3759,7 +3759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="1">
@@ -3784,7 +3784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1">
@@ -3809,7 +3809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="1">
@@ -3834,7 +3834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2">
         <v>1.5</v>
@@ -3861,7 +3861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1">
@@ -3886,7 +3886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="1">
@@ -3911,7 +3911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="1">
@@ -3936,7 +3936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="1">
@@ -3961,7 +3961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="1">
@@ -3986,7 +3986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="1">
@@ -4011,7 +4011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2">
         <v>1.75</v>
@@ -4038,7 +4038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="1">
@@ -4063,7 +4063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="1">
@@ -4088,7 +4088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="1">
@@ -4113,7 +4113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="1">
@@ -4138,7 +4138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="1">
@@ -4163,7 +4163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="1">
@@ -4188,7 +4188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>11.25</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="1">
@@ -4242,7 +4242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="1">
@@ -4267,7 +4267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="1">
@@ -4292,7 +4292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="1">
@@ -4317,7 +4317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="1">
@@ -4342,7 +4342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="1">
@@ -4367,7 +4367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2">
         <v>0.5</v>
@@ -4394,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="1">
@@ -4419,7 +4419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="1">
@@ -4444,7 +4444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="1">
@@ -4469,7 +4469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="1">
@@ -4494,7 +4494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="1">
@@ -4519,7 +4519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="1">
@@ -4544,7 +4544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2">
         <v>0.75</v>
@@ -4571,7 +4571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="1">
@@ -4596,7 +4596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="1">
@@ -4621,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="1">
@@ -4646,7 +4646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="1">
@@ -4671,7 +4671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="1">
@@ -4696,7 +4696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="1">
@@ -4721,7 +4721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2">
         <v>1</v>
@@ -4748,7 +4748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="1">
@@ -4773,7 +4773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="1">
@@ -4798,7 +4798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="1">
@@ -4823,7 +4823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="1">
@@ -4848,7 +4848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="1">
@@ -4873,7 +4873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="1">
@@ -4898,7 +4898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2">
         <v>1.25</v>
@@ -4925,7 +4925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="1">
@@ -4950,7 +4950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="1">
@@ -4975,7 +4975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="1">
@@ -5000,7 +5000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="1">
@@ -5025,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="1">
@@ -5050,7 +5050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="1">
@@ -5075,7 +5075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2">
         <v>1.5</v>
@@ -5102,7 +5102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="1">
@@ -5127,7 +5127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="1">
@@ -5152,7 +5152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="1">
@@ -5177,7 +5177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="1">
@@ -5202,7 +5202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="1">
@@ -5227,7 +5227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="1">
@@ -5252,7 +5252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2">
         <v>1.75</v>
@@ -5279,7 +5279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="1">
@@ -5304,7 +5304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="1">
@@ -5329,7 +5329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="1">
@@ -5354,7 +5354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="1">
@@ -5379,7 +5379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="1">
@@ -5404,7 +5404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="1">
@@ -5429,7 +5429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>13.5</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="1">
@@ -5483,7 +5483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="1">
@@ -5508,7 +5508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="1">
@@ -5533,7 +5533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="1">
@@ -5558,7 +5558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="1">
@@ -5583,7 +5583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="1">
@@ -5608,7 +5608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2">
         <v>0.5</v>
@@ -5635,7 +5635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="1">
@@ -5660,7 +5660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="1">
@@ -5685,7 +5685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="1">
@@ -5710,7 +5710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="1">
@@ -5735,7 +5735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="1">
@@ -5760,7 +5760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="1">
@@ -5785,7 +5785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2">
         <v>0.75</v>
@@ -5812,7 +5812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="1">
@@ -5837,7 +5837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="1">
@@ -5862,7 +5862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="1">
@@ -5887,7 +5887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="1">
@@ -5912,7 +5912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="1">
@@ -5937,7 +5937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="1">
@@ -5962,7 +5962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2">
         <v>1</v>
@@ -5989,7 +5989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="1">
@@ -6014,7 +6014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="1">
@@ -6039,7 +6039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="1">
@@ -6064,7 +6064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="1">
@@ -6089,7 +6089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="1">
@@ -6114,7 +6114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="1">
@@ -6139,7 +6139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2">
         <v>1.25</v>
@@ -6166,7 +6166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="1">
@@ -6191,7 +6191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="1">
@@ -6216,7 +6216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="1">
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="1">
@@ -6266,7 +6266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="1">
@@ -6291,7 +6291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="1">
@@ -6316,7 +6316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2">
         <v>1.5</v>
@@ -6343,7 +6343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="1">
@@ -6368,7 +6368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="1">
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="1">
@@ -6418,7 +6418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="1">
@@ -6443,7 +6443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="1">
@@ -6468,7 +6468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="1">
@@ -6493,7 +6493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2">
         <v>1.75</v>
@@ -6520,7 +6520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="1">
@@ -6545,7 +6545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="1">
@@ -6570,7 +6570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="1">
@@ -6595,7 +6595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="1">
@@ -6620,7 +6620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="1">
@@ -6645,7 +6645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="1">
@@ -6672,20 +6672,18 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B221:B227"/>
-    <mergeCell ref="B228:B234"/>
-    <mergeCell ref="B235:B241"/>
-    <mergeCell ref="B242:B248"/>
-    <mergeCell ref="B186:B192"/>
-    <mergeCell ref="B193:B199"/>
-    <mergeCell ref="B200:B206"/>
-    <mergeCell ref="B207:B213"/>
-    <mergeCell ref="B214:B220"/>
-    <mergeCell ref="B151:B157"/>
-    <mergeCell ref="B158:B164"/>
-    <mergeCell ref="B165:B171"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="B179:B185"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A4:A52"/>
+    <mergeCell ref="A53:A101"/>
+    <mergeCell ref="A102:A150"/>
+    <mergeCell ref="B102:B108"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="B116:B122"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="B137:B143"/>
+    <mergeCell ref="B144:B150"/>
     <mergeCell ref="A151:A199"/>
     <mergeCell ref="A200:A248"/>
     <mergeCell ref="B4:B10"/>
@@ -6702,18 +6700,20 @@
     <mergeCell ref="B81:B87"/>
     <mergeCell ref="B88:B94"/>
     <mergeCell ref="B95:B101"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A4:A52"/>
-    <mergeCell ref="A53:A101"/>
-    <mergeCell ref="A102:A150"/>
-    <mergeCell ref="B102:B108"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="B116:B122"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="B137:B143"/>
-    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="B151:B157"/>
+    <mergeCell ref="B158:B164"/>
+    <mergeCell ref="B165:B171"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="B179:B185"/>
+    <mergeCell ref="B221:B227"/>
+    <mergeCell ref="B228:B234"/>
+    <mergeCell ref="B235:B241"/>
+    <mergeCell ref="B242:B248"/>
+    <mergeCell ref="B186:B192"/>
+    <mergeCell ref="B193:B199"/>
+    <mergeCell ref="B200:B206"/>
+    <mergeCell ref="B207:B213"/>
+    <mergeCell ref="B214:B220"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
